--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4013831.45173896</v>
+        <v>4007987.316733832</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325642</v>
+        <v>6239134.533256423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069173</v>
+        <v>840694.9721069175</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>123.0810884524473</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>80.06579767188194</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>44.58467420294768</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.13719935906679</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>103.2573236523129</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.744651378236056</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.52266888753081</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>234.2559520454602</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145536</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673221</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>29.58750130410275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803221</v>
+        <v>251.003062380321</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.7401400319059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>68.72470345173738</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96.37417359506593</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>182.9628080177439</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>90.86459703690683</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>74.69637495512289</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.4928132020633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>20.46944745644245</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356202</v>
       </c>
       <c r="U28" t="n">
         <v>286.2142514133935</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.05723773234509</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.41197468642698</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>51.36206746018144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G35" t="n">
         <v>411.0203559212046</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.81869974802283</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>84.17672781354581</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3483,13 +3483,13 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145556</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367017</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803221</v>
+        <v>251.00306238032</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.4482050673221</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>24.89009583037196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212047</v>
       </c>
       <c r="H41" t="n">
         <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.92960450280885</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>11.69708505493558</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>113.3234595622261</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>22.85212331349193</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.921027721229</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>438.7118141694736</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533935</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.103316533935</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>903.4018368077029</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>485.4380287058898</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>158.2433087418926</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573868</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598056</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,22 +4676,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.76586200040086</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>243.4143268306406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>243.4143268306406</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.553052060998</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.553052060998</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>972.2873534542475</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>972.2873534542475</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.15289212512</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,40 +4886,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138675</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198264</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591514</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5032,61 +5032,61 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L11" t="n">
-        <v>1033.333349091251</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M11" t="n">
-        <v>1694.851094124213</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>3857.072805131457</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903958</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926292</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
       </c>
       <c r="S11" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666528</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902184</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053374</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709803</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439689</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178609</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202797</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K12" t="n">
-        <v>414.286932541866</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740674</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921422</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470411</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.669871067692</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.7704915554834</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C13" t="n">
-        <v>245.8343086275765</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5217,34 +5217,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V13" t="n">
-        <v>954.8666056896133</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W13" t="n">
-        <v>665.4494356526527</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X13" t="n">
-        <v>635.5630706990136</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.7704915554834</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="14">
@@ -5263,43 +5263,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J14" t="n">
         <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>765.1137348815564</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1200.738998111603</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M14" t="n">
-        <v>2162.143875059191</v>
+        <v>2071.84327357433</v>
       </c>
       <c r="N14" t="n">
-        <v>2691.499835319968</v>
+        <v>3034.172689002971</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>3520.693250262003</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4220.0070134764</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.94076625204</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5308,19 +5308,19 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U14" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5354,31 +5354,31 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J15" t="n">
-        <v>216.6338377265953</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K15" t="n">
-        <v>446.461755874852</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L15" t="n">
-        <v>801.8162955070534</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M15" t="n">
-        <v>1235.855150439289</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
-        <v>1695.790367254408</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
-        <v>2394.844694400678</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R15" t="n">
         <v>2587.498588679581</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5454,34 +5454,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S16" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>954.8666056896133</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>665.4494356526527</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>437.4598847546354</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.6673056111053</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066565</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1354.237307536704</v>
+        <v>1930.018791592162</v>
       </c>
       <c r="M17" t="n">
-        <v>2127.824549292078</v>
+        <v>2446.405270381845</v>
       </c>
       <c r="N17" t="n">
-        <v>2657.180509552854</v>
+        <v>2975.761230642622</v>
       </c>
       <c r="O17" t="n">
-        <v>3520.693250262004</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P17" t="n">
         <v>4220.007013476401</v>
@@ -5594,28 +5594,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K18" t="n">
-        <v>414.286932541866</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740674</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921422</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470411</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.669871067692</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.6248650915617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C19" t="n">
-        <v>438.6248650915617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D19" t="n">
-        <v>341.2772149955355</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E19" t="n">
-        <v>341.2772149955355</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F19" t="n">
-        <v>194.3872674976251</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5679,10 +5679,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5694,31 +5694,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.61395783393</v>
+        <v>1728.267732783031</v>
       </c>
       <c r="T19" t="n">
-        <v>1720.61395783393</v>
+        <v>1506.310173302574</v>
       </c>
       <c r="U19" t="n">
-        <v>1431.508653375957</v>
+        <v>1217.204868844601</v>
       </c>
       <c r="V19" t="n">
-        <v>1176.82416517007</v>
+        <v>962.5203806387142</v>
       </c>
       <c r="W19" t="n">
-        <v>887.4069951331091</v>
+        <v>673.1032106017535</v>
       </c>
       <c r="X19" t="n">
-        <v>659.4174442350918</v>
+        <v>445.1136597037362</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.6248650915617</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066565</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.72190994165</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N20" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M21" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.6538521431477</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
         <v>95.71766921524075</v>
@@ -5916,10 +5916,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5931,31 +5931,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1729.456390052682</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T22" t="n">
-        <v>1507.498830572226</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.393526114252</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V22" t="n">
-        <v>963.7090379083654</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W22" t="n">
-        <v>674.2918678714047</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X22" t="n">
-        <v>446.3023169733874</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.3023169733874</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6120443066565</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1354.237307536704</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M23" t="n">
-        <v>2315.642184484292</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N23" t="n">
-        <v>2844.998144745068</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O23" t="n">
         <v>3520.693250262004</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6153,10 +6153,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6168,28 +6168,28 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>954.8666056896133</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W25" t="n">
-        <v>665.4494356526527</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X25" t="n">
-        <v>437.4598847546354</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
         <v>277.3661340454805</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036605</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155743</v>
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066565</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.72190994165</v>
+        <v>1354.237307536703</v>
       </c>
       <c r="M26" t="n">
-        <v>2284.108388731333</v>
+        <v>1870.623786326387</v>
       </c>
       <c r="N26" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3135.81320246825</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4593.418768623296</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T28" t="n">
-        <v>4371.46120914284</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>4082.355904684867</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>3827.67141647898</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>3538.254246442019</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>3538.254246442019</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>3317.461667298489</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,28 +6463,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612034</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443785</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872426</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>414.286932541866</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740674</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3287.049447766844</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C31" t="n">
-        <v>3118.113264838938</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D31" t="n">
-        <v>3118.113264838938</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E31" t="n">
-        <v>3118.113264838938</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F31" t="n">
-        <v>3118.113264838938</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G31" t="n">
-        <v>3067.192078286991</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H31" t="n">
-        <v>3067.192078286991</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I31" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K31" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M31" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N31" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O31" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>4501.578929952708</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T31" t="n">
-        <v>4279.621370472251</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.516066014278</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.831577808392</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W31" t="n">
-        <v>3735.831577808392</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X31" t="n">
-        <v>3507.842026910374</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y31" t="n">
-        <v>3287.049447766844</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,25 +6700,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K32" t="n">
-        <v>918.6120443066565</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.72190994165</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M32" t="n">
-        <v>2284.108388731333</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N32" t="n">
-        <v>2813.46434899211</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O32" t="n">
-        <v>3676.97708970126</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4376.290852915657</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
         <v>4667.940766252041</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K33" t="n">
-        <v>414.286932541866</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740674</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106304</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.6604390533937</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>392.7242561254868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6864,10 +6864,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6879,31 +6879,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.656398353473</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>1243.971910147586</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.091033925181</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>964.1014830271636</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.3089038836334</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138672</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.37125319826</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.10555459151</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993265</v>
       </c>
       <c r="F35" t="n">
         <v>855.3313972036597</v>
@@ -6934,55 +6934,55 @@
         <v>141.5554198924155</v>
       </c>
       <c r="I35" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612034</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1327.278034693951</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.682911641539</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.01232707018</v>
+        <v>2657.180509552852</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262002</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476399</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252039</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762036</v>
       </c>
       <c r="S35" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666525</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.90868990218</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.37024305337</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.3073557098</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439685</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178605</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202794</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I36" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M36" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.7790390622906</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="C37" t="n">
-        <v>806.7790390622906</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="D37" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="E37" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="F37" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="I37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7113,34 +7113,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S37" t="n">
-        <v>1828.051652181211</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T37" t="n">
-        <v>1606.094092700755</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U37" t="n">
-        <v>1316.988788242781</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V37" t="n">
-        <v>1316.988788242781</v>
+        <v>863.0267670190243</v>
       </c>
       <c r="W37" t="n">
-        <v>1027.571618205821</v>
+        <v>573.6095969820637</v>
       </c>
       <c r="X37" t="n">
-        <v>1027.571618205821</v>
+        <v>345.6200460840464</v>
       </c>
       <c r="Y37" t="n">
-        <v>806.7790390622906</v>
+        <v>124.8274669405163</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J38" t="n">
-        <v>298.6835962546874</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K38" t="n">
-        <v>940.9862498677483</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1376.611513097795</v>
+        <v>1543.411851794606</v>
       </c>
       <c r="M38" t="n">
-        <v>2338.016390045384</v>
+        <v>2504.816728742194</v>
       </c>
       <c r="N38" t="n">
-        <v>2867.37235030616</v>
+        <v>3034.17268900297</v>
       </c>
       <c r="O38" t="n">
-        <v>3730.88509101531</v>
+        <v>3520.693250262002</v>
       </c>
       <c r="P38" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476399</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.940766252039</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762036</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666525</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.90868990218</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V38" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M39" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.9840696661809</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="C40" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="D40" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="E40" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="F40" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="G40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524072</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239499</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7350,34 +7350,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972672</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>1913.078649972672</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1623.973345514698</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>1598.831834574929</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>1309.414664537968</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.425113639951</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>860.6325344964206</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
         <v>440.1593205155743</v>
@@ -7414,13 +7414,13 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1611.438070502394</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M41" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N41" t="n">
         <v>2657.180509552854</v>
@@ -7444,19 +7444,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M42" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>437.4598847546354</v>
+        <v>341.001780409306</v>
       </c>
       <c r="C43" t="n">
-        <v>268.5237018267285</v>
+        <v>341.001780409306</v>
       </c>
       <c r="D43" t="n">
-        <v>268.5237018267285</v>
+        <v>341.001780409306</v>
       </c>
       <c r="E43" t="n">
-        <v>268.5237018267285</v>
+        <v>341.001780409306</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5237018267285</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G43" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7575,10 +7575,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7590,31 +7590,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S43" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V43" t="n">
-        <v>954.8666056896133</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4494356526527</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X43" t="n">
-        <v>437.4598847546354</v>
+        <v>561.7943595528361</v>
       </c>
       <c r="Y43" t="n">
-        <v>437.4598847546354</v>
+        <v>341.001780409306</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612034</v>
+        <v>765.1137348815562</v>
       </c>
       <c r="L44" t="n">
-        <v>1327.278034693951</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.682911641539</v>
+        <v>1717.125476901287</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.01232707018</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M45" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.183362962143</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="C46" t="n">
-        <v>921.2471800342362</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="D46" t="n">
-        <v>771.1305406219004</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E46" t="n">
-        <v>623.2174470395073</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F46" t="n">
         <v>508.7493060675617</v>
@@ -7812,10 +7812,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7827,31 +7827,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.61395783393</v>
+        <v>1798.155858460172</v>
       </c>
       <c r="T46" t="n">
-        <v>1720.61395783393</v>
+        <v>1576.198298979715</v>
       </c>
       <c r="U46" t="n">
-        <v>1720.61395783393</v>
+        <v>1287.092994521742</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.61395783393</v>
+        <v>1287.092994521742</v>
       </c>
       <c r="W46" t="n">
-        <v>1720.61395783393</v>
+        <v>1287.092994521742</v>
       </c>
       <c r="X46" t="n">
-        <v>1492.624406935913</v>
+        <v>1059.103443623725</v>
       </c>
       <c r="Y46" t="n">
-        <v>1271.831827792383</v>
+        <v>838.3108644801946</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>146.5972386295743</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>260.0527905534062</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>34.15539214908108</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>346.1341956393976</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>32.49982154847069</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>412.5008434698033</v>
       </c>
       <c r="M17" t="n">
-        <v>259.7987504703941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.49982154847066</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>90.70213529832085</v>
       </c>
       <c r="N20" t="n">
-        <v>120.1689464528305</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>191.0853982403065</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>74.60209794880222</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>120.1689464528305</v>
+        <v>259.7987504703942</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>74.60209794880109</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.45252657984858</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>74.60209794880109</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9138238411117</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529831881</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>22.60020763746647</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>21.9887830682319</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70213529832023</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>296.9138238411117</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>414.8475478694853</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.09184015003214</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>196.1221540849344</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.09184015003143</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>151.0132804339148</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>52.24129942314643</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.577237199610295</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>60.09184015003166</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>99.67544818044736</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>151.0132804339142</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.09184015003146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>146.7773736421854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956054</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>124.3767249142241</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>115.6580757152462</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>235.1609308764096</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>151.0132804339145</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>106.3633174038084</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003214</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>227.247547493456</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>140.1404458988643</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>214.0125703341016</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>32.09758846070515</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.6879219038623</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633673.8342948167</v>
+        <v>633673.8342948165</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633673.8342948167</v>
+        <v>633673.8342948166</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633673.8342948167</v>
+        <v>633673.8342948166</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>773193.1390242013</v>
       </c>
       <c r="F2" t="n">
+        <v>773193.1390242012</v>
+      </c>
+      <c r="G2" t="n">
+        <v>773193.1390242012</v>
+      </c>
+      <c r="H2" t="n">
         <v>773193.1390242014</v>
       </c>
-      <c r="G2" t="n">
-        <v>773193.1390242015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>773193.1390242011</v>
-      </c>
       <c r="I2" t="n">
-        <v>773193.1390242011</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="J2" t="n">
-        <v>773193.1390242012</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="K2" t="n">
-        <v>773193.139024201</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="L2" t="n">
         <v>773193.1390242013</v>
       </c>
       <c r="M2" t="n">
-        <v>773193.139024201</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="N2" t="n">
-        <v>773193.1390242013</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="O2" t="n">
-        <v>773193.1390242013</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="P2" t="n">
-        <v>773193.1390242012</v>
+        <v>773193.1390242015</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518287</v>
+        <v>708251.0967518284</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.2399694092</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.500226274990752e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,34 +26426,34 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659324</v>
       </c>
       <c r="F4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="I4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="J4" t="n">
         <v>19876.24241659314</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="L4" t="n">
         <v>19876.24241659314</v>
       </c>
       <c r="M4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659321</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659323</v>
       </c>
       <c r="O4" t="n">
         <v>19876.24241659314</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206917</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740546</v>
+        <v>-55659.91851740566</v>
       </c>
       <c r="C6" t="n">
         <v>534307.960697139</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.960697139</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="E6" t="n">
-        <v>-50901.91353628971</v>
+        <v>-51602.49267971199</v>
       </c>
       <c r="F6" t="n">
-        <v>657349.1832155391</v>
+        <v>656648.6040721164</v>
       </c>
       <c r="G6" t="n">
-        <v>657349.1832155392</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="H6" t="n">
-        <v>657349.1832155387</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="I6" t="n">
-        <v>657349.1832155387</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="J6" t="n">
-        <v>480925.9640229458</v>
+        <v>480225.3848795237</v>
       </c>
       <c r="K6" t="n">
-        <v>657349.1832155386</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="L6" t="n">
-        <v>657349.183215539</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="M6" t="n">
-        <v>527218.9432461292</v>
+        <v>526518.3641027074</v>
       </c>
       <c r="N6" t="n">
-        <v>657349.183215539</v>
+        <v>656648.6040721164</v>
       </c>
       <c r="O6" t="n">
-        <v>657349.183215539</v>
+        <v>656648.6040721167</v>
       </c>
       <c r="P6" t="n">
-        <v>657349.1832155389</v>
+        <v>656648.6040721168</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731076</v>
+        <v>687.4987572731072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359535</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.183592435953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>246.6500122260218</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.1721409841716</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7251280561032</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.793170713195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>48.67399259254836</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5021697203918</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.3533768541806</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>99.10841501723556</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>52.02592219651748</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28098,10 +28098,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.125282843738439e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.029687488252451e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H11" t="n">
         <v>43.85694049883998</v>
@@ -31761,25 +31761,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P11" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q11" t="n">
         <v>462.4490353515545</v>
@@ -31788,13 +31788,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H12" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
@@ -31925,16 +31925,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M13" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O13" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279596</v>
@@ -31943,16 +31943,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H14" t="n">
         <v>43.85694049883998</v>
@@ -31998,25 +31998,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P14" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q14" t="n">
         <v>462.4490353515545</v>
@@ -32025,13 +32025,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H15" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
@@ -32162,16 +32162,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M16" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O16" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279596</v>
@@ -32180,16 +32180,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H17" t="n">
         <v>43.85694049883998</v>
@@ -32235,25 +32235,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P17" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4490353515545</v>
@@ -32262,13 +32262,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H18" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
@@ -32399,16 +32399,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M19" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O19" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279596</v>
@@ -32417,16 +32417,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H20" t="n">
         <v>43.85694049883998</v>
@@ -32472,25 +32472,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P20" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q20" t="n">
         <v>462.4490353515545</v>
@@ -32499,13 +32499,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H21" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
@@ -32636,16 +32636,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M22" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O22" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279596</v>
@@ -32654,16 +32654,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883998</v>
@@ -32709,25 +32709,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P23" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515545</v>
@@ -32736,13 +32736,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H24" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
@@ -32873,16 +32873,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M25" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O25" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279596</v>
@@ -32891,16 +32891,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883998</v>
@@ -32946,25 +32946,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P26" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515545</v>
@@ -32973,13 +32973,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H27" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
@@ -33110,16 +33110,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M28" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O28" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279596</v>
@@ -33128,16 +33128,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883998</v>
@@ -33183,25 +33183,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P29" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515545</v>
@@ -33210,13 +33210,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H30" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
@@ -33347,16 +33347,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M31" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O31" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279596</v>
@@ -33365,16 +33365,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883998</v>
@@ -33420,25 +33420,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P32" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515545</v>
@@ -33447,13 +33447,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H33" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
@@ -33584,16 +33584,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M34" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O34" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279596</v>
@@ -33602,16 +33602,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883998</v>
@@ -33657,25 +33657,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P35" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515545</v>
@@ -33684,13 +33684,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H36" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
@@ -33821,16 +33821,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M37" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O37" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279596</v>
@@ -33839,16 +33839,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883998</v>
@@ -33894,25 +33894,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P38" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515545</v>
@@ -33921,13 +33921,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H39" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
@@ -34058,16 +34058,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M40" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O40" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279596</v>
@@ -34076,16 +34076,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883998</v>
@@ -34131,25 +34131,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P41" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515545</v>
@@ -34158,13 +34158,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H42" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
@@ -34295,16 +34295,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M43" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O43" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279596</v>
@@ -34313,16 +34313,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883998</v>
@@ -34368,25 +34368,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P44" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515545</v>
@@ -34395,13 +34395,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H45" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
@@ -34532,16 +34532,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M46" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O46" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279596</v>
@@ -34550,16 +34550,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L11" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
-        <v>668.199742457538</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>644.6316209823245</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239251</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594836</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389736</v>
@@ -35588,7 +35588,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532403</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>440.025518414189</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207962</v>
+        <v>555.7578959770445</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O14" t="n">
-        <v>837.5691060020564</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004011</v>
@@ -35670,7 +35670,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1375439508632</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R15" t="n">
-        <v>42.10227640033041</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389736</v>
@@ -35825,7 +35825,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K17" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L17" t="n">
-        <v>440.025518414189</v>
+        <v>852.5263618839922</v>
       </c>
       <c r="M17" t="n">
-        <v>781.4012542983578</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N17" t="n">
         <v>534.7029901624003</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q17" t="n">
         <v>452.4583361370097</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239251</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.9974383591531</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R18" t="n">
-        <v>42.10227640033041</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389736</v>
@@ -36062,7 +36062,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K20" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279637</v>
+        <v>612.3046391262843</v>
       </c>
       <c r="N20" t="n">
-        <v>654.8719366152308</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P20" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389736</v>
@@ -36299,7 +36299,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K23" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L23" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N23" t="n">
         <v>534.7029901624003</v>
       </c>
       <c r="O23" t="n">
-        <v>682.5203086029653</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P23" t="n">
         <v>706.3775386004011</v>
@@ -36381,7 +36381,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859783</v>
+        <v>539.1831250347803</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389736</v>
@@ -36536,7 +36536,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N26" t="n">
-        <v>654.8719366152308</v>
+        <v>794.5017406327945</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P26" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389736</v>
@@ -36773,7 +36773,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646394</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743845</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160651</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239251</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N30" t="n">
-        <v>539.1831250347794</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389736</v>
@@ -37010,7 +37010,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K32" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P32" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q32" t="n">
-        <v>294.5958720569536</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239251</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N33" t="n">
-        <v>539.1831250347794</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389736</v>
@@ -37247,7 +37247,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>736.9393422553006</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743845</v>
+        <v>625.4051254607191</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389736</v>
@@ -37484,7 +37484,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.016087918633</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K38" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L38" t="n">
-        <v>440.025518414189</v>
+        <v>462.0143014824208</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N38" t="n">
         <v>534.7029901624003</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P38" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389736</v>
@@ -37721,7 +37721,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532403</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K41" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>530.7276537125092</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
         <v>706.3775386004011</v>
@@ -37803,7 +37803,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389736</v>
@@ -37958,7 +37958,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>736.9393422553006</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743845</v>
+        <v>949.5505380318856</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389736</v>
@@ -38195,7 +38195,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4007987.316733832</v>
+        <v>4011537.876521225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256423</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069175</v>
+        <v>840694.972106918</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7462672.908938728</v>
+        <v>7462672.908938729</v>
       </c>
     </row>
     <row r="11">
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>80.06579767188194</v>
+        <v>331.2899651801712</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>103.2573236523129</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.83808333974875</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145536</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>16.5163444484825</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>130.4482050673221</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.003062380321</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>68.72470345173738</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>239.8843410436251</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9628080177439</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.7401400319056</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -2535,13 +2535,13 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>72.96183780661838</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>74.69637495512289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2766,10 +2766,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>159.6461437356202</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>226.122411263361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.05723773234509</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>130.4482050673223</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.81869974802283</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>27.4165040191023</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145556</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367017</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U38" t="n">
-        <v>251.00306238032</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>49.10613522950975</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>130.4482050673221</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0203559212047</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>18.35342106662624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>11.69708505493558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>22.85212331349193</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>135.2009709794783</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,16 +4363,16 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>1871.983983358263</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y2" t="n">
         <v>1791.109440255352</v>
@@ -4397,7 +4397,7 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1314.38774159731</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.38774159731</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.38774159731</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E5" t="n">
-        <v>1314.38774159731</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>903.4018368077029</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>485.4380287058898</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>158.2433087418926</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982757</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982757</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2491605982757</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2632558086682</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138675</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198264</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591514</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M11" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N11" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O11" t="n">
-        <v>3857.072805131457</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.258109903958</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926292</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
       </c>
       <c r="S11" t="n">
-        <v>4673.322552666528</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902184</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053374</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709803</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439689</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178609</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202797</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.71766921524073</v>
+        <v>409.1319977498457</v>
       </c>
       <c r="C13" t="n">
-        <v>95.71766921524073</v>
+        <v>409.1319977498457</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524073</v>
+        <v>259.01535833751</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524073</v>
+        <v>259.01535833751</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524073</v>
+        <v>259.01535833751</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524073</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
         <v>137.7436613720288</v>
@@ -5208,7 +5208,7 @@
         <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239499</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5226,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.355226787849</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.249922329876</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.565434123989</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W13" t="n">
-        <v>726.1482640870279</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X13" t="n">
-        <v>498.1587131890105</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.3661340454804</v>
+        <v>409.1319977498457</v>
       </c>
     </row>
     <row r="14">
@@ -5263,43 +5263,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557056</v>
+        <v>1354.237307536703</v>
       </c>
       <c r="M14" t="n">
-        <v>2071.84327357433</v>
+        <v>1970.102190551772</v>
       </c>
       <c r="N14" t="n">
-        <v>3034.172689002971</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262003</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.0070134764</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.94076625204</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5308,19 +5308,19 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5342,37 +5342,37 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524073</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524073</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
         <v>137.7436613720288</v>
@@ -5445,7 +5445,7 @@
         <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239499</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.249922329876</v>
+        <v>1256.348983157892</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.565434123989</v>
+        <v>1001.664494952005</v>
       </c>
       <c r="W16" t="n">
-        <v>726.1482640870279</v>
+        <v>712.2473249150439</v>
       </c>
       <c r="X16" t="n">
-        <v>498.1587131890105</v>
+        <v>484.2577740170266</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.3661340454804</v>
+        <v>263.4651948734965</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
@@ -5515,22 +5515,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L17" t="n">
-        <v>1930.018791592162</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.405270381845</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N17" t="n">
-        <v>2975.761230642622</v>
+        <v>2937.57878870456</v>
       </c>
       <c r="O17" t="n">
-        <v>3839.273971351772</v>
+        <v>3801.091529413709</v>
       </c>
       <c r="P17" t="n">
         <v>4220.007013476401</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5594,22 +5594,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
         <v>95.71766921524075</v>
@@ -5673,16 +5673,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5691,7 +5691,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1728.267732783031</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1506.310173302574</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1217.204868844601</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5203806387142</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>673.1032106017535</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>445.1136597037362</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>445.1136597037362</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,22 +5831,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
         <v>2436.525948037006</v>
@@ -5910,16 +5910,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5928,34 +5928,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>954.866605689613</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4494356526525</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4598847546351</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.667305611105</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="23">
@@ -5974,7 +5974,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.514037751686</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>2980.869998012462</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.71766921524075</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G25" t="n">
         <v>95.71766921524075</v>
@@ -6147,16 +6147,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6165,34 +6165,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
         <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1406.816559682885</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
         <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>863.0267670190245</v>
+        <v>1044.012429157619</v>
       </c>
       <c r="W25" t="n">
-        <v>573.609596982064</v>
+        <v>1044.012429157619</v>
       </c>
       <c r="X25" t="n">
-        <v>498.1587131890105</v>
+        <v>816.0228782596021</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.3661340454805</v>
+        <v>595.2302991160719</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036605</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155743</v>
@@ -6226,25 +6226,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066563</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L26" t="n">
-        <v>1354.237307536703</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M26" t="n">
-        <v>1870.623786326387</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552854</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q26" t="n">
         <v>4667.940766252041</v>
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,22 +6305,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6384,16 +6384,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6402,7 +6402,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
         <v>1913.078649972671</v>
@@ -6411,10 +6411,10 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
         <v>1270.249922329876</v>
@@ -6463,25 +6463,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K29" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L29" t="n">
-        <v>1611.438070502394</v>
+        <v>1639.210958469817</v>
       </c>
       <c r="M29" t="n">
-        <v>2127.824549292078</v>
+        <v>2600.615835417405</v>
       </c>
       <c r="N29" t="n">
-        <v>2657.180509552854</v>
+        <v>3562.945250846045</v>
       </c>
       <c r="O29" t="n">
-        <v>3520.693250262004</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P29" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q29" t="n">
         <v>4667.940766252041</v>
@@ -6527,13 +6527,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
@@ -6542,22 +6542,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>216.667305611105</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6639,7 +6639,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
         <v>1913.078649972671</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353473</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.5510938955</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V31" t="n">
-        <v>954.866605689613</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526525</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X31" t="n">
-        <v>437.4598847546351</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.667305611105</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6779,22 +6779,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
         <v>2436.525948037006</v>
@@ -6858,16 +6858,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6876,7 +6876,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
         <v>1913.078649972671</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138672</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.37125319826</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.10555459151</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993265</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>1086.017693327009</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.642956557056</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M35" t="n">
-        <v>2038.02943534674</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.180509552852</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.693250262002</v>
+        <v>3610.993851746863</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476399</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252039</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.883460762036</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S35" t="n">
-        <v>4673.322552666525</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.90868990218</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.37024305337</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.3073557098</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439685</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178605</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202794</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7001,37 +7001,37 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I36" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524072</v>
+        <v>606.7093291162179</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524072</v>
+        <v>437.773146188311</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524072</v>
+        <v>437.773146188311</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524072</v>
+        <v>437.773146188311</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524072</v>
+        <v>437.773146188311</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524072</v>
+        <v>270.0256205300552</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524072</v>
+        <v>123.4111076183744</v>
       </c>
       <c r="I37" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
         <v>137.7436613720288</v>
@@ -7104,7 +7104,7 @@
         <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239499</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.774119163341</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T37" t="n">
-        <v>1406.816559682884</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U37" t="n">
-        <v>1117.711255224911</v>
+        <v>1310.175947363652</v>
       </c>
       <c r="V37" t="n">
-        <v>863.0267670190243</v>
+        <v>1055.491459157765</v>
       </c>
       <c r="W37" t="n">
-        <v>573.6095969820637</v>
+        <v>1055.491459157765</v>
       </c>
       <c r="X37" t="n">
-        <v>345.6200460840464</v>
+        <v>827.501908259748</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.8274669405163</v>
+        <v>606.7093291162179</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1543.411851794606</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2504.816728742194</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N38" t="n">
-        <v>3034.17268900297</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O38" t="n">
-        <v>3520.693250262002</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4220.007013476399</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252039</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762036</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666525</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.90868990218</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="39">
@@ -7238,37 +7238,37 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N39" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
         <v>2436.525948037006</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.71766921524072</v>
+        <v>612.2857419353611</v>
       </c>
       <c r="C40" t="n">
-        <v>95.71766921524072</v>
+        <v>443.3495590074542</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524072</v>
+        <v>293.2329195951185</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524072</v>
+        <v>145.3198260127253</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524072</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
         <v>137.7436613720288</v>
@@ -7341,7 +7341,7 @@
         <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239499</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1781.312786268305</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.355226787849</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.249922329876</v>
+        <v>1532.133506844109</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.565434123989</v>
+        <v>1532.133506844109</v>
       </c>
       <c r="W40" t="n">
-        <v>726.1482640870279</v>
+        <v>1242.716336807148</v>
       </c>
       <c r="X40" t="n">
-        <v>498.1587131890105</v>
+        <v>1014.726785909131</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.3661340454804</v>
+        <v>793.9342067656008</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,7 +7411,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
         <v>1086.017693327009</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,22 +7490,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>341.001780409306</v>
+        <v>974.6920759057148</v>
       </c>
       <c r="C43" t="n">
-        <v>341.001780409306</v>
+        <v>805.7558929778079</v>
       </c>
       <c r="D43" t="n">
-        <v>341.001780409306</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="E43" t="n">
-        <v>341.001780409306</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F43" t="n">
-        <v>341.001780409306</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G43" t="n">
         <v>341.001780409306</v>
@@ -7569,16 +7569,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7587,34 +7587,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682885</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V43" t="n">
-        <v>863.0267670190245</v>
+        <v>1894.539840814462</v>
       </c>
       <c r="W43" t="n">
-        <v>573.609596982064</v>
+        <v>1605.122670777502</v>
       </c>
       <c r="X43" t="n">
-        <v>561.7943595528361</v>
+        <v>1377.133119879484</v>
       </c>
       <c r="Y43" t="n">
-        <v>341.001780409306</v>
+        <v>1156.340540735954</v>
       </c>
     </row>
     <row r="44">
@@ -7648,16 +7648,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1200.738998111603</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M44" t="n">
-        <v>1717.125476901287</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N44" t="n">
         <v>2657.180509552854</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,22 +7727,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N45" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
         <v>2436.525948037006</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7824,34 +7824,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1798.155858460172</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.198298979715</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1287.092994521742</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>1287.092994521742</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
-        <v>1287.092994521742</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X46" t="n">
-        <v>1059.103443623725</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y46" t="n">
-        <v>838.3108644801946</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>260.0527905534062</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.15539214908108</v>
+        <v>100.4832365912982</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>412.5008434698033</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>38.5681231697601</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>90.70213529832085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>53.84110201061594</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>259.7987504703942</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>121.1022618873204</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70213529832102</v>
+        <v>287.8521726597111</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>90.70213529832063</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>90.70213529831881</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>230.5859793988982</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>21.9887830682319</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>90.70213529832063</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>414.8475478694853</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>149.5537059531907</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>60.09184015003214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0132804339148</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.32991036976838</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>7.577237199610295</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.09184015003166</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>179.1758055172096</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0132804339142</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>60.09184015003191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.09184015003251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3767249142241</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>60.09184015003191</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.0132804339145</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>70.26639828045825</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>96.3149127934215</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
@@ -25569,7 +25569,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>60.09184015003214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>233.7842222572017</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>214.0125703341016</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.6879219038623</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>151.0132804339151</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633673.8342948165</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633673.8342948166</v>
+        <v>633673.8342948167</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>773193.1390242013</v>
+        <v>773193.1390242014</v>
       </c>
       <c r="F2" t="n">
         <v>773193.1390242012</v>
       </c>
       <c r="G2" t="n">
+        <v>773193.1390242011</v>
+      </c>
+      <c r="H2" t="n">
+        <v>773193.1390242011</v>
+      </c>
+      <c r="I2" t="n">
         <v>773193.1390242012</v>
-      </c>
-      <c r="H2" t="n">
-        <v>773193.1390242014</v>
-      </c>
-      <c r="I2" t="n">
-        <v>773193.1390242014</v>
       </c>
       <c r="J2" t="n">
         <v>773193.1390242014</v>
@@ -26343,19 +26343,19 @@
         <v>773193.1390242014</v>
       </c>
       <c r="L2" t="n">
-        <v>773193.1390242013</v>
+        <v>773193.1390242012</v>
       </c>
       <c r="M2" t="n">
-        <v>773193.1390242014</v>
+        <v>773193.1390242008</v>
       </c>
       <c r="N2" t="n">
-        <v>773193.1390242014</v>
+        <v>773193.1390242015</v>
       </c>
       <c r="O2" t="n">
         <v>773193.1390242014</v>
       </c>
       <c r="P2" t="n">
-        <v>773193.1390242015</v>
+        <v>773193.1390242014</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518284</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694092</v>
+        <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
-        <v>6.500226274990752e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659324</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="F4" t="n">
-        <v>19876.24241659319</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="I4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="L4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="M4" t="n">
-        <v>19876.24241659321</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659323</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="O4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659316</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
         <v>95967.7133920692</v>
@@ -26502,10 +26502,10 @@
         <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206917</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740566</v>
+        <v>-55659.91851740569</v>
       </c>
       <c r="C6" t="n">
         <v>534307.960697139</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971389</v>
+        <v>534307.960697139</v>
       </c>
       <c r="E6" t="n">
-        <v>-51602.49267971199</v>
+        <v>-50971.97145063138</v>
       </c>
       <c r="F6" t="n">
-        <v>656648.6040721164</v>
+        <v>657279.1253011966</v>
       </c>
       <c r="G6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011965</v>
       </c>
       <c r="H6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011965</v>
       </c>
       <c r="I6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011966</v>
       </c>
       <c r="J6" t="n">
-        <v>480225.3848795237</v>
+        <v>480855.9061086038</v>
       </c>
       <c r="K6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011968</v>
       </c>
       <c r="L6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011966</v>
       </c>
       <c r="M6" t="n">
-        <v>526518.3641027074</v>
+        <v>527148.8853317868</v>
       </c>
       <c r="N6" t="n">
-        <v>656648.6040721164</v>
+        <v>657279.1253011969</v>
       </c>
       <c r="O6" t="n">
-        <v>656648.6040721167</v>
+        <v>657279.1253011968</v>
       </c>
       <c r="P6" t="n">
-        <v>656648.6040721168</v>
+        <v>657279.1253011968</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359535</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.183592435953</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359535</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.1721409841716</v>
+        <v>54.94797347588241</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>48.67399259254836</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>384.8551676131859</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>99.10841501723556</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>107.5829646831825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28098,10 +28098,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.131628207280301e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.125282843738439e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.029687488252451e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
         <v>292.4793908967038</v>
@@ -31870,7 +31870,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31913,43 +31913,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
         <v>292.4793908967038</v>
@@ -32107,7 +32107,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32150,43 +32150,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
         <v>292.4793908967038</v>
@@ -32344,7 +32344,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32387,43 +32387,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q21" t="n">
         <v>292.4793908967038</v>
@@ -32581,7 +32581,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32624,43 +32624,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N22" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S22" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q24" t="n">
         <v>292.4793908967038</v>
@@ -32818,7 +32818,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32861,43 +32861,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N25" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S25" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q27" t="n">
         <v>292.4793908967038</v>
@@ -33055,7 +33055,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33098,43 +33098,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N28" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S28" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q30" t="n">
         <v>292.4793908967038</v>
@@ -33292,7 +33292,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33335,43 +33335,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N31" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S31" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q33" t="n">
         <v>292.4793908967038</v>
@@ -33529,7 +33529,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33572,43 +33572,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N34" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S34" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q36" t="n">
         <v>292.4793908967038</v>
@@ -33766,7 +33766,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33809,43 +33809,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N37" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S37" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q39" t="n">
         <v>292.4793908967038</v>
@@ -34003,7 +34003,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34046,43 +34046,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N40" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S40" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q42" t="n">
         <v>292.4793908967038</v>
@@ -34240,7 +34240,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34283,43 +34283,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N43" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S43" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q45" t="n">
         <v>292.4793908967038</v>
@@ -34477,7 +34477,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34520,43 +34520,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N46" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S46" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M11" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>644.6316209823245</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M14" t="n">
-        <v>555.7578959770445</v>
+        <v>622.0857404192616</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L17" t="n">
-        <v>852.5263618839922</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289184</v>
+        <v>423.1469535986784</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>612.3046391262843</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.235091625404</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585826</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K22" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>545.2760123732746</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585826</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>539.1831250347803</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K25" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N26" t="n">
-        <v>794.5017406327945</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>872.235091625404</v>
+        <v>612.5371722499789</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K28" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>530.7276537125099</v>
+        <v>727.8776910738998</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q29" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K31" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>625.4051254607209</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585826</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K34" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N35" t="n">
-        <v>625.4051254607191</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O35" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004011</v>
+        <v>615.1648098278165</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K37" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L38" t="n">
-        <v>462.0143014824208</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901624003</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K40" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N41" t="n">
-        <v>625.4051254607209</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O41" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K43" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>949.5505380318856</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K46" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
